--- a/data/trans_orig/P6607-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>61113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49462</v>
+        <v>50290</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73012</v>
+        <v>72215</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4851746724409977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3926757214849242</v>
+        <v>0.3992517815031475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5796414612480418</v>
+        <v>0.5733114663104335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -764,19 +764,19 @@
         <v>68141</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58484</v>
+        <v>58794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75164</v>
+        <v>75249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7784828125082739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6681569148636368</v>
+        <v>0.671690308538566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8587130419790974</v>
+        <v>0.8596892059121221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -785,19 +785,19 @@
         <v>129254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113068</v>
+        <v>114297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143427</v>
+        <v>143613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.605430007296375</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5296125250752957</v>
+        <v>0.5353708116693529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6718130230837094</v>
+        <v>0.6726879285170015</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>25018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16875</v>
+        <v>17071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34962</v>
+        <v>36349</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1986159890885102</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.13397322257346</v>
+        <v>0.1355236705247453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2775627529970423</v>
+        <v>0.2885715697656088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -838,16 +838,16 @@
         <v>7008</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19795</v>
+        <v>20563</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1424505699336284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08006016969456187</v>
+        <v>0.0800616213699426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2261453028534431</v>
+        <v>0.2349207967003605</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -856,19 +856,19 @@
         <v>37487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27233</v>
+        <v>26099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49902</v>
+        <v>48771</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1755883592170251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1275583273791149</v>
+        <v>0.1222459329231741</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.233742212483848</v>
+        <v>0.2284454990480342</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>14367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8369</v>
+        <v>8080</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23676</v>
+        <v>22909</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1140620390317869</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06643884807676405</v>
+        <v>0.06414387864686295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1879617395729242</v>
+        <v>0.181871355684095</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7660</v>
+        <v>9730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02056436223027388</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08751476254769788</v>
+        <v>0.1111626649636025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -927,19 +927,19 @@
         <v>16167</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9223</v>
+        <v>9257</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26060</v>
+        <v>26824</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07572831113256513</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04319950330764936</v>
+        <v>0.0433604165292777</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1220652969652836</v>
+        <v>0.1256419652793217</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>25463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17074</v>
+        <v>17794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35753</v>
+        <v>36149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2021472994387053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.135553563127243</v>
+        <v>0.1412621282689649</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2838397335706496</v>
+        <v>0.2869836536048759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -977,19 +977,19 @@
         <v>5121</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1313</v>
+        <v>1336</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13562</v>
+        <v>12390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05850225532782386</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01499761626841707</v>
+        <v>0.0152649951002506</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1549406966189128</v>
+        <v>0.1415484725176349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -998,19 +998,19 @@
         <v>30583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21430</v>
+        <v>21711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42567</v>
+        <v>41756</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1432533223540348</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1003803951005151</v>
+        <v>0.101693057562179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1993834708081094</v>
+        <v>0.1955865267791674</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>58600</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46917</v>
+        <v>46675</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71222</v>
+        <v>72459</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.340221065290344</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2723937960331247</v>
+        <v>0.2709903747386883</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4135018946919263</v>
+        <v>0.420686464005145</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -1123,19 +1123,19 @@
         <v>82993</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71223</v>
+        <v>71168</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93138</v>
+        <v>93259</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6764593706153887</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.580524138115146</v>
+        <v>0.5800713874258616</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.759142085776262</v>
+        <v>0.7601307501245411</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>131</v>
@@ -1144,19 +1144,19 @@
         <v>141593</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>123281</v>
+        <v>122843</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>157992</v>
+        <v>158998</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4800942114808962</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4180051609425871</v>
+        <v>0.416518385908922</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5356979772742062</v>
+        <v>0.5391092148194311</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>28484</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19140</v>
+        <v>19847</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40316</v>
+        <v>39823</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.165372455568779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1111267033293484</v>
+        <v>0.1152288516023127</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2340686262329258</v>
+        <v>0.2312040053841858</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1194,19 +1194,19 @@
         <v>23642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15707</v>
+        <v>15035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33369</v>
+        <v>33605</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1927023024235352</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1280249875845121</v>
+        <v>0.1225476359422304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2719808675418484</v>
+        <v>0.2739039377070953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1215,19 +1215,19 @@
         <v>52126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40554</v>
+        <v>39757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67008</v>
+        <v>66639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1767415102063381</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1375035709617228</v>
+        <v>0.1348008732265157</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2272023505604089</v>
+        <v>0.225949203172137</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>33089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22787</v>
+        <v>22300</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45673</v>
+        <v>45505</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1921098467207488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1322978579111536</v>
+        <v>0.129468044351834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2651700688156402</v>
+        <v>0.2641949157646596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1265,19 +1265,19 @@
         <v>4864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1827</v>
+        <v>1038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11476</v>
+        <v>11939</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03964169800874828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01489395703704278</v>
+        <v>0.008461038765311216</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09353841888244838</v>
+        <v>0.09730783665192054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -1286,19 +1286,19 @@
         <v>37953</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27601</v>
+        <v>26182</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53186</v>
+        <v>52347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1286839986943609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09358484434233863</v>
+        <v>0.0887740273028004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1803346707893683</v>
+        <v>0.1774897525577635</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>52068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40195</v>
+        <v>39942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64347</v>
+        <v>66769</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3022966324201282</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2333671462794107</v>
+        <v>0.2318987038459923</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3735886584301767</v>
+        <v>0.3876507510191413</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1336,19 +1336,19 @@
         <v>11189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5295</v>
+        <v>5949</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19170</v>
+        <v>19800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09119662895232777</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04315823299850795</v>
+        <v>0.04849173015911536</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1562533775681081</v>
+        <v>0.1613857314899578</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -1357,19 +1357,19 @@
         <v>63256</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48218</v>
+        <v>49815</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>78814</v>
+        <v>80032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2144802796184048</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1634898825364013</v>
+        <v>0.1689057235142773</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2672327348160541</v>
+        <v>0.2713606768613473</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>43851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34311</v>
+        <v>33512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55654</v>
+        <v>54902</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3082245051659899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2411683386097122</v>
+        <v>0.23554956101054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.391182281006157</v>
+        <v>0.3858944361994289</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -1482,19 +1482,19 @@
         <v>61486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52603</v>
+        <v>52671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68880</v>
+        <v>69275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7465027336610921</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6386443460652383</v>
+        <v>0.6394789208979533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.836270214860124</v>
+        <v>0.8410597054412033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -1503,19 +1503,19 @@
         <v>105338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90384</v>
+        <v>91459</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119548</v>
+        <v>120060</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4689253545794515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4023538273231089</v>
+        <v>0.4071411209134366</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5321835110411416</v>
+        <v>0.5344630577413191</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>40297</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30040</v>
+        <v>30274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50761</v>
+        <v>52309</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2832422789178066</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2111459143765142</v>
+        <v>0.212788174267574</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3567883549146056</v>
+        <v>0.3676740641464702</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -1553,19 +1553,19 @@
         <v>8875</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4087</v>
+        <v>3971</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15681</v>
+        <v>16074</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1077541522682677</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04962251854373373</v>
+        <v>0.04820880396595638</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1903815778951645</v>
+        <v>0.1951478267300818</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>49</v>
@@ -1574,19 +1574,19 @@
         <v>49172</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>37444</v>
+        <v>37955</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>62356</v>
+        <v>61948</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2188971000313469</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1666887072864959</v>
+        <v>0.1689634359571492</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2775835454188332</v>
+        <v>0.2757697402689474</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>31727</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22141</v>
+        <v>22813</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41953</v>
+        <v>41347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.223003583740962</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1556221346158247</v>
+        <v>0.1603508524689611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2948786058196389</v>
+        <v>0.290617997260912</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>5951</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2828</v>
+        <v>2121</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11889</v>
+        <v>12036</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07224517186116611</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03433961394443562</v>
+        <v>0.025745452205912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1443405843466018</v>
+        <v>0.1461334173512132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1645,19 +1645,19 @@
         <v>37677</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28308</v>
+        <v>27541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50253</v>
+        <v>49379</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1677259010495471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.126015245430016</v>
+        <v>0.1226015219250027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2237067529181434</v>
+        <v>0.2198162360449499</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>26395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17904</v>
+        <v>18240</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37969</v>
+        <v>37230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1855296321752415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1258412978216212</v>
+        <v>0.1282054059070938</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2668799020815086</v>
+        <v>0.2616830480333299</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>6054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2072</v>
+        <v>2042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12017</v>
+        <v>11247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07349794220947412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02515981963735387</v>
+        <v>0.02479454566180962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1458918592113283</v>
+        <v>0.1365512953089921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1716,19 +1716,19 @@
         <v>32449</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22600</v>
+        <v>22676</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45611</v>
+        <v>44213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1444516443396545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1006081414081139</v>
+        <v>0.1009454957643228</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2030409301897585</v>
+        <v>0.1968187887848826</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>48777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37285</v>
+        <v>37410</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61335</v>
+        <v>61926</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3444039128364081</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2632614536838547</v>
+        <v>0.2641423238808586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4330738448935801</v>
+        <v>0.4372501715218886</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -1841,19 +1841,19 @@
         <v>76080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66029</v>
+        <v>65428</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84642</v>
+        <v>83878</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7509781670086605</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6517650316059519</v>
+        <v>0.6458333631453802</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8354928573306204</v>
+        <v>0.8279454884621079</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -1862,19 +1862,19 @@
         <v>124857</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108826</v>
+        <v>108893</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141944</v>
+        <v>140971</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5139522495771564</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4479642549246575</v>
+        <v>0.4482373392732883</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5842894210089404</v>
+        <v>0.5802837537036244</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>24159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15682</v>
+        <v>16312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33254</v>
+        <v>34519</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1705832862946921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1107277736270726</v>
+        <v>0.1151737424024971</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2347980852215998</v>
+        <v>0.2437285394298064</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1912,19 +1912,19 @@
         <v>19205</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11665</v>
+        <v>12256</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28032</v>
+        <v>30753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1895700563218983</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.115140629385879</v>
+        <v>0.1209734595974073</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.276699996087401</v>
+        <v>0.3035623908501827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1933,19 +1933,19 @@
         <v>43364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32465</v>
+        <v>31826</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57625</v>
+        <v>56959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1785010903493189</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1336363189482663</v>
+        <v>0.1310056310404406</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2372015474490157</v>
+        <v>0.2344615589393284</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>32655</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22722</v>
+        <v>22385</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44721</v>
+        <v>44573</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2305692016393458</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1604329282783843</v>
+        <v>0.1580551535554362</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.315766026369378</v>
+        <v>0.314719555672431</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6453</v>
+        <v>6151</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01815650805284913</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06369819139526262</v>
+        <v>0.06071372388186414</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -2004,19 +2004,19 @@
         <v>34494</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24317</v>
+        <v>24563</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46791</v>
+        <v>47218</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1419895177792983</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1000961486471298</v>
+        <v>0.1011081021229299</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1926085621485566</v>
+        <v>0.1943663051002561</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>36036</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25836</v>
+        <v>26122</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49016</v>
+        <v>48574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.254443599229554</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1824241307349618</v>
+        <v>0.1844449668624333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3460949657185018</v>
+        <v>0.3429714205634995</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2054,19 +2054,19 @@
         <v>4184</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1141</v>
+        <v>1080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9530</v>
+        <v>9683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04129526861659209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01126367909734198</v>
+        <v>0.0106562270638907</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09406594119389776</v>
+        <v>0.09557595757405467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2075,19 +2075,19 @@
         <v>40220</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28768</v>
+        <v>29375</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52597</v>
+        <v>53631</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1655571422942265</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1184201556276189</v>
+        <v>0.1209161406536999</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.216507981094507</v>
+        <v>0.2207608983372028</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>27394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18397</v>
+        <v>19143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37528</v>
+        <v>37324</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3374442643829338</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2266158988642726</v>
+        <v>0.2358074667975269</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4622755988902686</v>
+        <v>0.4597741108370795</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>41</v>
@@ -2200,19 +2200,19 @@
         <v>42034</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>33646</v>
+        <v>34291</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47272</v>
+        <v>47557</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7678479117038509</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6146132701899764</v>
+        <v>0.6263952904167042</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8635209046546436</v>
+        <v>0.868735641109344</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -2221,19 +2221,19 @@
         <v>69428</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56764</v>
+        <v>56458</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82223</v>
+        <v>81098</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5107893923110729</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4176211060351919</v>
+        <v>0.4153661020367722</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6049199344249082</v>
+        <v>0.5966433620512221</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>19406</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12138</v>
+        <v>12349</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28702</v>
+        <v>28074</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2390479276571859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1495140542285023</v>
+        <v>0.1521152588295466</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3535551338922322</v>
+        <v>0.3458245484026481</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2271,19 +2271,19 @@
         <v>9886</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5637</v>
+        <v>4893</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16820</v>
+        <v>16488</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1805955001100692</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1029672939694881</v>
+        <v>0.08938633864837622</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3072521611264735</v>
+        <v>0.301183109175925</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2292,19 +2292,19 @@
         <v>29292</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20253</v>
+        <v>20397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39383</v>
+        <v>38965</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2155062044540126</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.149001287436492</v>
+        <v>0.1500618050954641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2897456927704839</v>
+        <v>0.2866703303017318</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>9762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16588</v>
+        <v>17101</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1202525870310932</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05967145299290118</v>
+        <v>0.0596562302854144</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2043419399421534</v>
+        <v>0.210657528563111</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5156</v>
+        <v>4556</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01822657574142155</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09419353450613656</v>
+        <v>0.08321923826540258</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2363,19 +2363,19 @@
         <v>10760</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5772</v>
+        <v>5803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18081</v>
+        <v>18309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07916159700558562</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04246190483485111</v>
+        <v>0.04268977344707968</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1330221965561924</v>
+        <v>0.1347026293728627</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>24618</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16648</v>
+        <v>17067</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>34229</v>
+        <v>33816</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3032552209287871</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2050798854976307</v>
+        <v>0.2102336948180288</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4216451436513288</v>
+        <v>0.4165504430792487</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8853</v>
+        <v>8731</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03333001244465829</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1617192502676286</v>
+        <v>0.159492221189617</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -2434,19 +2434,19 @@
         <v>26443</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18647</v>
+        <v>17983</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38350</v>
+        <v>38630</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1945428062293288</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1371850654665523</v>
+        <v>0.1323032959721418</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.282145473519796</v>
+        <v>0.2842017016495491</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>43886</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33334</v>
+        <v>33147</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55374</v>
+        <v>54790</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3710790847996158</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2818570755685806</v>
+        <v>0.2802788350475539</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4682153659550488</v>
+        <v>0.463281178874784</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -2559,19 +2559,19 @@
         <v>36397</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27774</v>
+        <v>29153</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42917</v>
+        <v>43654</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.658277424467772</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5023159057882395</v>
+        <v>0.5272587470283788</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.776187932235974</v>
+        <v>0.7895261544115229</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>76</v>
@@ -2580,19 +2580,19 @@
         <v>80284</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>66038</v>
+        <v>67403</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>94769</v>
+        <v>95119</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4625747517598193</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3804961520225544</v>
+        <v>0.3883609991964336</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5460348251410665</v>
+        <v>0.548053465188767</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>31608</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22152</v>
+        <v>21845</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43438</v>
+        <v>44362</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2672607621603926</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1873080383740898</v>
+        <v>0.1847146991261506</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3672869703056096</v>
+        <v>0.3751075497829069</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2630,19 +2630,19 @@
         <v>11902</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6802</v>
+        <v>6430</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19415</v>
+        <v>19153</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2152546576250853</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1230175889978624</v>
+        <v>0.1162871499039363</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3511281467597688</v>
+        <v>0.3463968349671214</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>39</v>
@@ -2651,19 +2651,19 @@
         <v>43510</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31979</v>
+        <v>31084</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>56731</v>
+        <v>54961</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.250692653772447</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1842538408178843</v>
+        <v>0.1790975240692118</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3268707750020292</v>
+        <v>0.3166718698811012</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>18709</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11956</v>
+        <v>11760</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28431</v>
+        <v>28437</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1581949038312524</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1010946794103011</v>
+        <v>0.09943454243806078</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2403960920138089</v>
+        <v>0.2404534219401557</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10310</v>
+        <v>8807</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05259682177213816</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1864643268593608</v>
+        <v>0.1592746361734654</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2722,19 +2722,19 @@
         <v>21617</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13630</v>
+        <v>13522</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32221</v>
+        <v>32406</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1245534595287517</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07853194342348226</v>
+        <v>0.07791183081077603</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1856517905687805</v>
+        <v>0.1867182755950786</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>24063</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15451</v>
+        <v>15991</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34237</v>
+        <v>34177</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2034652492087393</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1306443334577621</v>
+        <v>0.1352149342651624</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2894907748160773</v>
+        <v>0.2889873723995602</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2772,19 +2772,19 @@
         <v>4084</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1012</v>
+        <v>980</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9261</v>
+        <v>9305</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07387109613500453</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0183112927199147</v>
+        <v>0.01771959143796529</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1674946737995862</v>
+        <v>0.1682892627336821</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -2793,19 +2793,19 @@
         <v>28147</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19307</v>
+        <v>19323</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39381</v>
+        <v>39807</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.162179134938982</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1112396556037202</v>
+        <v>0.1113347894135463</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2269021567478137</v>
+        <v>0.2293594674188962</v>
       </c>
     </row>
     <row r="33">
@@ -2897,19 +2897,19 @@
         <v>119016</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>102612</v>
+        <v>102098</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>135683</v>
+        <v>137188</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4413196409077884</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3804897840093673</v>
+        <v>0.3785867597449152</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5031197893158177</v>
+        <v>0.5086991478088723</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>125</v>
@@ -2918,19 +2918,19 @@
         <v>132650</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>119185</v>
+        <v>119483</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>145083</v>
+        <v>144150</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7324059845773702</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6580609672866982</v>
+        <v>0.6597064631565274</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8010543620508918</v>
+        <v>0.7959006344570458</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>232</v>
@@ -2939,19 +2939,19 @@
         <v>251667</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>228379</v>
+        <v>231731</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>274257</v>
+        <v>274073</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5582680388917204</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.506610388464498</v>
+        <v>0.5140456942296915</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6083808405941279</v>
+        <v>0.6079721112923965</v>
       </c>
     </row>
     <row r="35">
@@ -2968,19 +2968,19 @@
         <v>58634</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46215</v>
+        <v>47190</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73221</v>
+        <v>74538</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2174176913900127</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1713681642380198</v>
+        <v>0.1749827249502843</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2715067824729998</v>
+        <v>0.2763924030760768</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>25</v>
@@ -2989,19 +2989,19 @@
         <v>27155</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>17980</v>
+        <v>18015</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>38380</v>
+        <v>38008</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1499303317843076</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0992742231884014</v>
+        <v>0.09946930685477508</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2119075741497684</v>
+        <v>0.2098565362559315</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>83</v>
@@ -3010,19 +3010,19 @@
         <v>85789</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>68750</v>
+        <v>68436</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>102333</v>
+        <v>102727</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1903036107685881</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.152506138078733</v>
+        <v>0.1518110868431737</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2270037328905234</v>
+        <v>0.227878053942049</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>47995</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34425</v>
+        <v>35804</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>61197</v>
+        <v>62848</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1779699509540201</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1276489806347829</v>
+        <v>0.1327622120964481</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2269232385718048</v>
+        <v>0.2330444071813971</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -3060,19 +3060,19 @@
         <v>16130</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9981</v>
+        <v>9056</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25774</v>
+        <v>26401</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08905822810944479</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05510596120363692</v>
+        <v>0.04999918130247225</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1423072733302057</v>
+        <v>0.1457684111367797</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>60</v>
@@ -3081,19 +3081,19 @@
         <v>64125</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>49903</v>
+        <v>50430</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>84344</v>
+        <v>82120</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1422483041822034</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1107001097061476</v>
+        <v>0.1118686393344859</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1870997478553048</v>
+        <v>0.1821645231349298</v>
       </c>
     </row>
     <row r="37">
@@ -3110,19 +3110,19 @@
         <v>44037</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31884</v>
+        <v>31418</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>58467</v>
+        <v>58239</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1632927167481788</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1182266106027128</v>
+        <v>0.1164993619212454</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2167985830580695</v>
+        <v>0.2159522111387511</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -3131,19 +3131,19 @@
         <v>5181</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11410</v>
+        <v>11883</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02860545552887743</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01083718600161975</v>
+        <v>0.01079508426531324</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06299813011754028</v>
+        <v>0.06561232918478513</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>47</v>
@@ -3152,19 +3152,19 @@
         <v>49218</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>35570</v>
+        <v>36935</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>64043</v>
+        <v>64186</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1091800461574881</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0789039202980228</v>
+        <v>0.08193253578665177</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1420651708628976</v>
+        <v>0.1423828672707682</v>
       </c>
     </row>
     <row r="38">
@@ -3256,19 +3256,19 @@
         <v>174599</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>155154</v>
+        <v>154825</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>193267</v>
+        <v>194187</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4879382321467054</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4335964758398038</v>
+        <v>0.4326765656080681</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5401082156657669</v>
+        <v>0.5426804963032997</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>172</v>
@@ -3277,19 +3277,19 @@
         <v>189781</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>173565</v>
+        <v>175218</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>203864</v>
+        <v>204569</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.7338571731771564</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6711516628575454</v>
+        <v>0.6775415137469737</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7883136244531602</v>
+        <v>0.7910371615729395</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>334</v>
@@ -3298,19 +3298,19 @@
         <v>364380</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>340303</v>
+        <v>339057</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>393675</v>
+        <v>389376</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.591106142986245</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5520469879215972</v>
+        <v>0.5500261508143034</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6386286952070661</v>
+        <v>0.6316544956606074</v>
       </c>
     </row>
     <row r="40">
@@ -3327,19 +3327,19 @@
         <v>69806</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>55759</v>
+        <v>54574</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>85096</v>
+        <v>85803</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1950827683084273</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1558266347549515</v>
+        <v>0.1525137025014029</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.237812117823035</v>
+        <v>0.2397875914740449</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -3348,19 +3348,19 @@
         <v>37386</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>27207</v>
+        <v>26186</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>51315</v>
+        <v>50057</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1445662476132967</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1052068708156154</v>
+        <v>0.1012587674040989</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1984296167698176</v>
+        <v>0.1935617530375008</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>99</v>
@@ -3369,19 +3369,19 @@
         <v>107192</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>89626</v>
+        <v>88549</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>127168</v>
+        <v>127146</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1738900782246096</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1453929309494347</v>
+        <v>0.143645468630938</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2062949106059601</v>
+        <v>0.2062593542712665</v>
       </c>
     </row>
     <row r="41">
@@ -3398,19 +3398,19 @@
         <v>71542</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>56050</v>
+        <v>56008</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>86652</v>
+        <v>85270</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1999336466858149</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1566380476323571</v>
+        <v>0.1565223978046278</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2421595147060199</v>
+        <v>0.2382978061160676</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3419,19 +3419,19 @@
         <v>15248</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8305</v>
+        <v>9034</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>25039</v>
+        <v>24906</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05896325936252061</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03211351446284916</v>
+        <v>0.03493407158533571</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09682396724838294</v>
+        <v>0.09630612124827728</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>83</v>
@@ -3440,19 +3440,19 @@
         <v>86791</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>70191</v>
+        <v>69894</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>105075</v>
+        <v>106873</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1407937516885275</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1138656686449361</v>
+        <v>0.1133837951191626</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1704555244395655</v>
+        <v>0.173372310359667</v>
       </c>
     </row>
     <row r="42">
@@ -3469,19 +3469,19 @@
         <v>41882</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>30567</v>
+        <v>29966</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>55411</v>
+        <v>54888</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1170453528590524</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08542290385327124</v>
+        <v>0.08374404701640022</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1548525755790367</v>
+        <v>0.1533906306213868</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>14</v>
@@ -3490,19 +3490,19 @@
         <v>16192</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>9891</v>
+        <v>9481</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>26899</v>
+        <v>26187</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0626133198470263</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03824892916075481</v>
+        <v>0.03666268037165004</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1040162784681956</v>
+        <v>0.1012599796398885</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>52</v>
@@ -3511,19 +3511,19 @@
         <v>58075</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>45270</v>
+        <v>44428</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>75857</v>
+        <v>75034</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09421002710061795</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07343842456098909</v>
+        <v>0.07207251774614974</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1230570896778957</v>
+        <v>0.1217226837432103</v>
       </c>
     </row>
     <row r="43">
@@ -3615,19 +3615,19 @@
         <v>577236</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>542562</v>
+        <v>538821</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>619147</v>
+        <v>616030</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4096611050399486</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3850528493062589</v>
+        <v>0.3823982627056556</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4394048935319476</v>
+        <v>0.4371924598500705</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>638</v>
@@ -3636,19 +3636,19 @@
         <v>689565</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>662302</v>
+        <v>656306</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>717363</v>
+        <v>716810</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7307406556153411</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7018497808869598</v>
+        <v>0.6954959432260757</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7601985883012984</v>
+        <v>0.7596131501236321</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1178</v>
@@ -3657,19 +3657,19 @@
         <v>1266801</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1219838</v>
+        <v>1220507</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1318093</v>
+        <v>1321748</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5384434084851311</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5184821517581393</v>
+        <v>0.5187666395403787</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5602445856131241</v>
+        <v>0.5617982309377839</v>
       </c>
     </row>
     <row r="45">
@@ -3686,19 +3686,19 @@
         <v>297412</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>266181</v>
+        <v>263245</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>331849</v>
+        <v>330456</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2110715648849366</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1889069041620172</v>
+        <v>0.1868233499576826</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2355111535816037</v>
+        <v>0.2345227992528803</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>140</v>
@@ -3707,19 +3707,19 @@
         <v>150520</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>128856</v>
+        <v>128483</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>175460</v>
+        <v>177301</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1595082939541691</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1365505214429612</v>
+        <v>0.1361553046982066</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1859374531081479</v>
+        <v>0.1878883623196319</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>423</v>
@@ -3728,19 +3728,19 @@
         <v>447932</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>407171</v>
+        <v>406523</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>489587</v>
+        <v>487361</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1903899712059489</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1730646929568199</v>
+        <v>0.1727892773705041</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2080951220635164</v>
+        <v>0.2071486079873889</v>
       </c>
     </row>
     <row r="46">
@@ -3757,19 +3757,19 @@
         <v>259847</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>229727</v>
+        <v>231298</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>289969</v>
+        <v>290201</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1844118756893433</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1630355747679474</v>
+        <v>0.1641510422596099</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2057890686582554</v>
+        <v>0.2059539248297516</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>45</v>
@@ -3778,19 +3778,19 @@
         <v>49738</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>36333</v>
+        <v>36888</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>65337</v>
+        <v>65946</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05270768436512696</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03850277335076743</v>
+        <v>0.03909037180350008</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06923830616411006</v>
+        <v>0.06988337939118502</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>292</v>
@@ -3799,19 +3799,19 @@
         <v>309585</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>277761</v>
+        <v>275535</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>342709</v>
+        <v>343363</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1315864338269692</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1180599688995354</v>
+        <v>0.1171139357283587</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1456654457025126</v>
+        <v>0.1459436692018662</v>
       </c>
     </row>
     <row r="47">
@@ -3828,19 +3828,19 @@
         <v>274563</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>245152</v>
+        <v>244796</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>307896</v>
+        <v>308576</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1948554543857715</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1739828038555483</v>
+        <v>0.1737305243181477</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2185119134251078</v>
+        <v>0.2189943687047415</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>48</v>
@@ -3849,19 +3849,19 @@
         <v>53829</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>39635</v>
+        <v>41206</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>71238</v>
+        <v>71290</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05704336606536289</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04200181780630149</v>
+        <v>0.04366630899011958</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07549213020176493</v>
+        <v>0.07554669064269236</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>303</v>
@@ -3870,19 +3870,19 @@
         <v>328392</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>296282</v>
+        <v>296157</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>364299</v>
+        <v>364593</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1395801864819508</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.125932286911103</v>
+        <v>0.125879199554112</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1548423255723586</v>
+        <v>0.1549671090631908</v>
       </c>
     </row>
     <row r="48">
@@ -4218,19 +4218,19 @@
         <v>40030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30753</v>
+        <v>29719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51845</v>
+        <v>50465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3029811763568206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2327637119085094</v>
+        <v>0.2249414300697956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3924099874906113</v>
+        <v>0.3819629723476246</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -4239,19 +4239,19 @@
         <v>75469</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65309</v>
+        <v>66383</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83879</v>
+        <v>83163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7541647434941912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6526284792185255</v>
+        <v>0.663360841040844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8382060393506653</v>
+        <v>0.8310486145554914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -4260,19 +4260,19 @@
         <v>115499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99460</v>
+        <v>98184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>131911</v>
+        <v>131389</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4974330914393085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4283563755720837</v>
+        <v>0.4228601761329315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5681159587680142</v>
+        <v>0.5658699437322977</v>
       </c>
     </row>
     <row r="5">
@@ -4289,19 +4289,19 @@
         <v>41858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30782</v>
+        <v>31039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53365</v>
+        <v>53944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3168148109280002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2329881521694151</v>
+        <v>0.2349275332997108</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.403912638708236</v>
+        <v>0.4082943042643707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -4310,19 +4310,19 @@
         <v>14149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7477</v>
+        <v>8193</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23044</v>
+        <v>22270</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1413917089151533</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07471395941048199</v>
+        <v>0.08187587631090874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2302804669261943</v>
+        <v>0.2225426717218721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -4331,19 +4331,19 @@
         <v>56007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42415</v>
+        <v>43714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70131</v>
+        <v>70408</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2412106430888756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1826745520950694</v>
+        <v>0.1882696867659952</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3020434964273062</v>
+        <v>0.3032339341708107</v>
       </c>
     </row>
     <row r="6">
@@ -4360,19 +4360,19 @@
         <v>23151</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13577</v>
+        <v>14184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32878</v>
+        <v>34838</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1752252841263629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1027648266006868</v>
+        <v>0.1073585050148243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2488460267620341</v>
+        <v>0.263683323591362</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4381,19 +4381,19 @@
         <v>3871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1049</v>
+        <v>1094</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9426</v>
+        <v>9089</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03868619310209061</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01047979146051004</v>
+        <v>0.01093046159412432</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09419814908223706</v>
+        <v>0.09082503600956379</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -4402,19 +4402,19 @@
         <v>27022</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17268</v>
+        <v>17848</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38923</v>
+        <v>39525</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1163794181260877</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07436953277659684</v>
+        <v>0.07686672133028886</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1676362855756896</v>
+        <v>0.1702285864013635</v>
       </c>
     </row>
     <row r="7">
@@ -4431,19 +4431,19 @@
         <v>27082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17998</v>
+        <v>18012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37083</v>
+        <v>38505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2049787285888162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1362215443042986</v>
+        <v>0.1363298760597985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2806759013766331</v>
+        <v>0.2914405314551305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4452,19 +4452,19 @@
         <v>6580</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12440</v>
+        <v>12403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0657573544885649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02759122565329369</v>
+        <v>0.02761579647692185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1243161624900698</v>
+        <v>0.1239395517618535</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -4473,19 +4473,19 @@
         <v>33662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22851</v>
+        <v>24116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45793</v>
+        <v>47802</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1449768473457282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0984129382495523</v>
+        <v>0.1038639710948322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1972203377308899</v>
+        <v>0.205874361268697</v>
       </c>
     </row>
     <row r="8">
@@ -4577,19 +4577,19 @@
         <v>57466</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44489</v>
+        <v>45556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>70661</v>
+        <v>71973</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3374453051593858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2612451317953465</v>
+        <v>0.2675109982646344</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4149273105435811</v>
+        <v>0.4226303301428519</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>71</v>
@@ -4598,19 +4598,19 @@
         <v>73103</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62374</v>
+        <v>62158</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>82423</v>
+        <v>82413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6430595312272197</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5486801249796945</v>
+        <v>0.5467773584161852</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7250436345652149</v>
+        <v>0.7249559472564534</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -4619,19 +4619,19 @@
         <v>130569</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>112819</v>
+        <v>113258</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>147197</v>
+        <v>147803</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.459787208834928</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3972812518554157</v>
+        <v>0.3988267042896003</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.518342730786496</v>
+        <v>0.5204741822597924</v>
       </c>
     </row>
     <row r="10">
@@ -4648,19 +4648,19 @@
         <v>37963</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27963</v>
+        <v>28010</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50490</v>
+        <v>50325</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2229207128561424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1641999406168045</v>
+        <v>0.1644753812174498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2964815415086928</v>
+        <v>0.2955147482285144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -4669,19 +4669,19 @@
         <v>19043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11995</v>
+        <v>11865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28229</v>
+        <v>27979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1675141089494498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1055147871630881</v>
+        <v>0.1043753996158954</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.248321891646676</v>
+        <v>0.2461176769472892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -4690,19 +4690,19 @@
         <v>57006</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45129</v>
+        <v>43958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73428</v>
+        <v>70320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2007406282267151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1589184579026595</v>
+        <v>0.1547931761496713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2585695204726596</v>
+        <v>0.2476258935542707</v>
       </c>
     </row>
     <row r="11">
@@ -4719,19 +4719,19 @@
         <v>21212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12843</v>
+        <v>13487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31895</v>
+        <v>31821</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1245602439051281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07541630211619695</v>
+        <v>0.07919796206919748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1872878125693523</v>
+        <v>0.1868578230743483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4740,19 +4740,19 @@
         <v>5050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1935</v>
+        <v>1121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11148</v>
+        <v>10188</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04442010040903975</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01702556242258494</v>
+        <v>0.009865325725793137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09806668583653193</v>
+        <v>0.08962327023030102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>24</v>
@@ -4761,19 +4761,19 @@
         <v>26262</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17547</v>
+        <v>17430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>37901</v>
+        <v>37749</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09247895684499509</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06179059463531235</v>
+        <v>0.06137768478421117</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1334658533491599</v>
+        <v>0.1329295053309419</v>
       </c>
     </row>
     <row r="12">
@@ -4790,19 +4790,19 @@
         <v>53656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41234</v>
+        <v>41461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67764</v>
+        <v>67245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3150737380793436</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2421310430403393</v>
+        <v>0.243461304058143</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3979168982643423</v>
+        <v>0.3948696008777437</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -4811,19 +4811,19 @@
         <v>16484</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10412</v>
+        <v>9670</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25822</v>
+        <v>25549</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1450062594142907</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09158675352738192</v>
+        <v>0.08506258166334911</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2271490477408586</v>
+        <v>0.2247409273413868</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>63</v>
@@ -4832,19 +4832,19 @@
         <v>70140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>56427</v>
+        <v>56245</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>86229</v>
+        <v>86647</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2469932060933619</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1987043779476916</v>
+        <v>0.19806329109871</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.303648727938831</v>
+        <v>0.3051182130742655</v>
       </c>
     </row>
     <row r="13">
@@ -4936,19 +4936,19 @@
         <v>48726</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39068</v>
+        <v>38434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59320</v>
+        <v>59154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3958968361655888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3174306373268296</v>
+        <v>0.3122756757878319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4819762634081316</v>
+        <v>0.4806262216900104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>58</v>
@@ -4957,19 +4957,19 @@
         <v>57149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48236</v>
+        <v>48788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65528</v>
+        <v>64683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6857608886186966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.578819394494738</v>
+        <v>0.5854340351615981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7863157274261456</v>
+        <v>0.7761668274367902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>109</v>
@@ -4978,19 +4978,19 @@
         <v>105875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91009</v>
+        <v>90594</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120341</v>
+        <v>118638</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5129252418346776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4409059242377515</v>
+        <v>0.4388941769274859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5830071220463171</v>
+        <v>0.5747584293043707</v>
       </c>
     </row>
     <row r="15">
@@ -5007,19 +5007,19 @@
         <v>29126</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21293</v>
+        <v>20557</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38488</v>
+        <v>38045</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2366494439275096</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1730087577141249</v>
+        <v>0.1670235835729492</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3127159315234966</v>
+        <v>0.3091130390259819</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -5028,19 +5028,19 @@
         <v>15277</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9571</v>
+        <v>9085</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23036</v>
+        <v>23173</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1833149172639203</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.114844719763129</v>
+        <v>0.1090214396503996</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2764251333990225</v>
+        <v>0.2780706894129032</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>46</v>
@@ -5049,19 +5049,19 @@
         <v>44403</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>33531</v>
+        <v>33564</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>57046</v>
+        <v>56233</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2151164025940553</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1624458458435958</v>
+        <v>0.1626062609015439</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2763674201541203</v>
+        <v>0.2724268738570522</v>
       </c>
     </row>
     <row r="16">
@@ -5078,19 +5078,19 @@
         <v>25430</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17145</v>
+        <v>16796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34904</v>
+        <v>34043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.206621317050169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1392995883609744</v>
+        <v>0.1364692743735699</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2835926048877468</v>
+        <v>0.2765985851262419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5099,19 +5099,19 @@
         <v>4372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>927</v>
+        <v>1067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10590</v>
+        <v>10493</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05245801407928776</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01111935283581239</v>
+        <v>0.01280173294039811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1270710073661097</v>
+        <v>0.1259161810021195</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -5120,19 +5120,19 @@
         <v>29802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21061</v>
+        <v>20864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41025</v>
+        <v>40317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1443801201625985</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1020322760378192</v>
+        <v>0.101079466870967</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1987532019910084</v>
+        <v>0.1953188478265736</v>
       </c>
     </row>
     <row r="17">
@@ -5149,19 +5149,19 @@
         <v>19795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12151</v>
+        <v>12948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27823</v>
+        <v>28667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1608324028567326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09872456215392775</v>
+        <v>0.1052016716757044</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2260582689179659</v>
+        <v>0.2329202607544756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -5170,19 +5170,19 @@
         <v>6539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2790</v>
+        <v>2803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12981</v>
+        <v>12607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07846618003809536</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.033477405938193</v>
+        <v>0.03363763337427784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1557716193044235</v>
+        <v>0.1512792702995652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -5191,19 +5191,19 @@
         <v>26334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17564</v>
+        <v>18044</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37066</v>
+        <v>36779</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1275782354086687</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08509149220817179</v>
+        <v>0.0874167857712439</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1795716371735861</v>
+        <v>0.1781790841318087</v>
       </c>
     </row>
     <row r="18">
@@ -5295,19 +5295,19 @@
         <v>36422</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26597</v>
+        <v>26007</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47170</v>
+        <v>46392</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3277054440843272</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2393081379784638</v>
+        <v>0.2339975266676771</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4244126584378956</v>
+        <v>0.417410906732468</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -5316,19 +5316,19 @@
         <v>61476</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53127</v>
+        <v>52332</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68080</v>
+        <v>69139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7510017695276167</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6490053160499561</v>
+        <v>0.6392923646292705</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8316785262083095</v>
+        <v>0.8446058608493179</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -5337,19 +5337,19 @@
         <v>97898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80946</v>
+        <v>82411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110791</v>
+        <v>112022</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5072399668319669</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4194046338315464</v>
+        <v>0.4269973992305763</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5740422591475596</v>
+        <v>0.580420580150087</v>
       </c>
     </row>
     <row r="20">
@@ -5366,19 +5366,19 @@
         <v>22656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14770</v>
+        <v>15005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32375</v>
+        <v>32094</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2038465388312198</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1328926696315826</v>
+        <v>0.1350051485304739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2912925245282961</v>
+        <v>0.2887647900938408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -5387,19 +5387,19 @@
         <v>12582</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7113</v>
+        <v>6570</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20537</v>
+        <v>19695</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1537049834727008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08689795595325056</v>
+        <v>0.0802620245874045</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2508883680337894</v>
+        <v>0.2405937801490315</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -5408,19 +5408,19 @@
         <v>35238</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25562</v>
+        <v>25914</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46645</v>
+        <v>47101</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1825797815502801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.132443311743992</v>
+        <v>0.1342661374286639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2416829113960409</v>
+        <v>0.2440451825087872</v>
       </c>
     </row>
     <row r="21">
@@ -5437,19 +5437,19 @@
         <v>20938</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13248</v>
+        <v>13594</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31719</v>
+        <v>32018</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1883848765952253</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1191983456423095</v>
+        <v>0.1223105521630821</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2853874072886849</v>
+        <v>0.2880751391443085</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -5458,19 +5458,19 @@
         <v>3329</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9546</v>
+        <v>10234</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04066293107512909</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01075072014920113</v>
+        <v>0.01072954999845279</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1166113403697724</v>
+        <v>0.1250200232506115</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -5479,19 +5479,19 @@
         <v>24266</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15136</v>
+        <v>16136</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36729</v>
+        <v>36328</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1257309214480138</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07842346696562046</v>
+        <v>0.08360590169276347</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1903013048051512</v>
+        <v>0.1882280133413403</v>
       </c>
     </row>
     <row r="22">
@@ -5508,19 +5508,19 @@
         <v>31127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21424</v>
+        <v>22468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41552</v>
+        <v>41408</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2800631404892278</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1927648861329286</v>
+        <v>0.202154849432661</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3738568939274712</v>
+        <v>0.3725644853415162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -5529,19 +5529,19 @@
         <v>4472</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1523</v>
+        <v>1013</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10336</v>
+        <v>10079</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05463031592455347</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01860865153900769</v>
+        <v>0.01237839427512094</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1262665396692205</v>
+        <v>0.123129702008293</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -5550,19 +5550,19 @@
         <v>35599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24645</v>
+        <v>25052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48001</v>
+        <v>47799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1844493301697392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1276927548477075</v>
+        <v>0.1298014435330533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2487054934587492</v>
+        <v>0.2476594662924465</v>
       </c>
     </row>
     <row r="23">
@@ -5654,19 +5654,19 @@
         <v>20962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13605</v>
+        <v>14059</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29431</v>
+        <v>28947</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.262109925502547</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.170123965880617</v>
+        <v>0.1757993345877253</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3680066446630641</v>
+        <v>0.3619570715340717</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -5675,19 +5675,19 @@
         <v>35554</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28366</v>
+        <v>28785</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42013</v>
+        <v>42435</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6415554732440371</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5118625814421109</v>
+        <v>0.5194210481451401</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7581176524017371</v>
+        <v>0.7657339857886213</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -5696,19 +5696,19 @@
         <v>56516</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44331</v>
+        <v>45298</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66599</v>
+        <v>67449</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4174245870748052</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3274275558917317</v>
+        <v>0.3345690764942137</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4919009376217575</v>
+        <v>0.4981777963339176</v>
       </c>
     </row>
     <row r="25">
@@ -5725,19 +5725,19 @@
         <v>18191</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11160</v>
+        <v>11581</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27959</v>
+        <v>26830</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2274620725667308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1395420582633713</v>
+        <v>0.1448101559845303</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3495999006011283</v>
+        <v>0.3354935487829938</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -5746,19 +5746,19 @@
         <v>8374</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4419</v>
+        <v>4014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14788</v>
+        <v>14576</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.151113528027481</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07974678125184435</v>
+        <v>0.07243444771803206</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.266853721240828</v>
+        <v>0.2630106997971611</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -5767,19 +5767,19 @@
         <v>26565</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18052</v>
+        <v>18379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38147</v>
+        <v>36233</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1962110843097102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1333306161310902</v>
+        <v>0.1357438711729412</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2817494983025716</v>
+        <v>0.2676148902036822</v>
       </c>
     </row>
     <row r="26">
@@ -5796,19 +5796,19 @@
         <v>17389</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11091</v>
+        <v>10962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26047</v>
+        <v>26204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2174375916819316</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1386826909872935</v>
+        <v>0.1370656441144575</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3256943412755862</v>
+        <v>0.3276636559831899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -5817,19 +5817,19 @@
         <v>3603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>934</v>
+        <v>886</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8282</v>
+        <v>8136</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06502217853609772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01685939010850468</v>
+        <v>0.01598805574944649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.149448233633552</v>
+        <v>0.1468197265788219</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -5838,19 +5838,19 @@
         <v>20993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14182</v>
+        <v>13306</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30046</v>
+        <v>30247</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1550509107680507</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1047477101865537</v>
+        <v>0.09827937133380141</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.221917367894548</v>
+        <v>0.223402993426009</v>
       </c>
     </row>
     <row r="27">
@@ -5867,19 +5867,19 @@
         <v>23431</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16254</v>
+        <v>16028</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31724</v>
+        <v>32104</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2929904102487906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2032426522514027</v>
+        <v>0.2004152061278167</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3966810186747559</v>
+        <v>0.4014390104514167</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -5888,19 +5888,19 @@
         <v>7886</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3804</v>
+        <v>3529</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14145</v>
+        <v>13539</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1423088201923842</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06865060010736281</v>
+        <v>0.06367821087765746</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2552435253077591</v>
+        <v>0.2443123331023064</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>31</v>
@@ -5909,19 +5909,19 @@
         <v>31318</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>22667</v>
+        <v>22956</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>41659</v>
+        <v>41778</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2313134178474339</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1674198382863099</v>
+        <v>0.1695534654138643</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3076929023532813</v>
+        <v>0.308571741999989</v>
       </c>
     </row>
     <row r="28">
@@ -6013,19 +6013,19 @@
         <v>34989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23975</v>
+        <v>25604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44527</v>
+        <v>44655</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3254708941889933</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2230227752095671</v>
+        <v>0.2381745124322409</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4141994605464548</v>
+        <v>0.4153851968031161</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>69</v>
@@ -6034,19 +6034,19 @@
         <v>67432</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>60109</v>
+        <v>60817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>71657</v>
+        <v>71883</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8923373440653413</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7954325541100273</v>
+        <v>0.804796988481854</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9482499695048251</v>
+        <v>0.9512380703329185</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>103</v>
@@ -6055,19 +6055,19 @@
         <v>102422</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>87221</v>
+        <v>89818</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>116019</v>
+        <v>117129</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5594634537696032</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4764308238039685</v>
+        <v>0.4906180321094972</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6337377754231468</v>
+        <v>0.6397989368542292</v>
       </c>
     </row>
     <row r="30">
@@ -6084,19 +6084,19 @@
         <v>18092</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11671</v>
+        <v>11086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27778</v>
+        <v>26382</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.168294908261606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1085638273404618</v>
+        <v>0.1031263398617468</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2583925650104471</v>
+        <v>0.2454054384223975</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -6105,19 +6105,19 @@
         <v>4843</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1883</v>
+        <v>1801</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10611</v>
+        <v>10384</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0640852466843216</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02491343494722187</v>
+        <v>0.02383751962591897</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1404114598096654</v>
+        <v>0.1374091609511166</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -6126,19 +6126,19 @@
         <v>22935</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15254</v>
+        <v>14747</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33562</v>
+        <v>33019</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1252789819339553</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08332213298767323</v>
+        <v>0.08055606458443933</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1833269797470809</v>
+        <v>0.180363094453425</v>
       </c>
     </row>
     <row r="31">
@@ -6155,19 +6155,19 @@
         <v>20140</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12957</v>
+        <v>12456</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29437</v>
+        <v>29209</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1873477387175271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1205318077572103</v>
+        <v>0.115864751132532</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2738277877717468</v>
+        <v>0.2717088584629364</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8251</v>
+        <v>8746</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02024917367406342</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1091840111371767</v>
+        <v>0.1157416334335996</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -6197,19 +6197,19 @@
         <v>21671</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>13485</v>
+        <v>13239</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32214</v>
+        <v>31889</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1183723725703578</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07366199079344375</v>
+        <v>0.07231869359531219</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1759652613363709</v>
+        <v>0.1741879510043949</v>
       </c>
     </row>
     <row r="32">
@@ -6226,19 +6226,19 @@
         <v>34281</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24963</v>
+        <v>25005</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>45147</v>
+        <v>44437</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3188864588318737</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.232209507067357</v>
+        <v>0.2326026410234695</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4199637756632342</v>
+        <v>0.413359523809006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6216</v>
+        <v>6238</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02332823557627375</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08225360921508246</v>
+        <v>0.08254773655111217</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -6268,19 +6268,19 @@
         <v>36044</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26125</v>
+        <v>24976</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47821</v>
+        <v>47300</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1968851917260838</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1427041856482312</v>
+        <v>0.1364269345393462</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2612148367975747</v>
+        <v>0.2583722378089477</v>
       </c>
     </row>
     <row r="33">
@@ -6372,19 +6372,19 @@
         <v>135989</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>116829</v>
+        <v>117600</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>154805</v>
+        <v>155766</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3812931211753274</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.327571255908034</v>
+        <v>0.3297335625092854</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4340518346595293</v>
+        <v>0.4367462425328522</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>159</v>
@@ -6393,19 +6393,19 @@
         <v>165518</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>147826</v>
+        <v>147610</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>181910</v>
+        <v>181625</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5849420117545464</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5224168044856156</v>
+        <v>0.5216550483519414</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6428702343009248</v>
+        <v>0.6418637331549631</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>278</v>
@@ -6414,19 +6414,19 @@
         <v>301507</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>274561</v>
+        <v>277160</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>326960</v>
+        <v>329833</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4713870216363354</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4292578281828248</v>
+        <v>0.4333217273664239</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5111805924335189</v>
+        <v>0.5156728058448028</v>
       </c>
     </row>
     <row r="35">
@@ -6443,19 +6443,19 @@
         <v>126237</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>107244</v>
+        <v>106794</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>145268</v>
+        <v>146122</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3539520072816622</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3006962299634937</v>
+        <v>0.2994358163488809</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4073113510803124</v>
+        <v>0.4097058108210413</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>79</v>
@@ -6464,19 +6464,19 @@
         <v>84137</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>68990</v>
+        <v>69326</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>101575</v>
+        <v>100582</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2973415731472748</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2438097644975732</v>
+        <v>0.2449999041022277</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3589652492640185</v>
+        <v>0.355457698100735</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>188</v>
@@ -6485,19 +6485,19 @@
         <v>210375</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>185006</v>
+        <v>185184</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>235771</v>
+        <v>237133</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.328907653720728</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2892454155847524</v>
+        <v>0.2895226282234144</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3686131524909724</v>
+        <v>0.3707427317891643</v>
       </c>
     </row>
     <row r="36">
@@ -6514,19 +6514,19 @@
         <v>48842</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>35634</v>
+        <v>35322</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>63881</v>
+        <v>63671</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1369456278750361</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09991369615725741</v>
+        <v>0.0990393444445683</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1791133124142012</v>
+        <v>0.178525655279495</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>27</v>
@@ -6535,19 +6535,19 @@
         <v>26487</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>18441</v>
+        <v>18210</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>37334</v>
+        <v>37294</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0936060862652246</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06517125770029553</v>
+        <v>0.06435341179706466</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1319368930264478</v>
+        <v>0.1317985708071828</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>68</v>
@@ -6556,19 +6556,19 @@
         <v>75329</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>58367</v>
+        <v>58646</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>94013</v>
+        <v>91961</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1177722931383994</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09125271946076523</v>
+        <v>0.09168871572692157</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1469837228456129</v>
+        <v>0.1437748765090755</v>
       </c>
     </row>
     <row r="37">
@@ -6585,19 +6585,19 @@
         <v>45583</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>32698</v>
+        <v>34136</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>59407</v>
+        <v>59838</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1278092436679744</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09168190122470801</v>
+        <v>0.09571135206746209</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1665679127036723</v>
+        <v>0.1677764749284322</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -6606,19 +6606,19 @@
         <v>6822</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2902</v>
+        <v>2959</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13640</v>
+        <v>13769</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02411032883295429</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01025429084342983</v>
+        <v>0.01045679951241254</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04820377633835465</v>
+        <v>0.04865934848965203</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -6627,19 +6627,19 @@
         <v>52406</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>39103</v>
+        <v>39960</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>66674</v>
+        <v>68978</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08193303150453722</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06113487658228896</v>
+        <v>0.06247546136321992</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1042404608949091</v>
+        <v>0.1078429335849505</v>
       </c>
     </row>
     <row r="38">
@@ -6731,19 +6731,19 @@
         <v>167226</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>148137</v>
+        <v>149239</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>185471</v>
+        <v>185384</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5143928108432487</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4556768843140914</v>
+        <v>0.4590665364198327</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.570515875255629</v>
+        <v>0.5702482454489642</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>172</v>
@@ -6752,19 +6752,19 @@
         <v>179278</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>165959</v>
+        <v>164554</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>192001</v>
+        <v>190746</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.7557878757223647</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6996380860997333</v>
+        <v>0.6937143199208969</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8094229660600937</v>
+        <v>0.8041321112006434</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>331</v>
@@ -6773,19 +6773,19 @@
         <v>346504</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>323354</v>
+        <v>322845</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>370870</v>
+        <v>369672</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6162254630923387</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5750559301681613</v>
+        <v>0.5741512623236956</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6595590947726807</v>
+        <v>0.6574286299538603</v>
       </c>
     </row>
     <row r="40">
@@ -6802,19 +6802,19 @@
         <v>65633</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>52542</v>
+        <v>51223</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>82477</v>
+        <v>81759</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2018887492979268</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.161621661197592</v>
+        <v>0.15756276967728</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2537042527719445</v>
+        <v>0.2514929517899036</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>32</v>
@@ -6823,19 +6823,19 @@
         <v>33477</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22945</v>
+        <v>24002</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>44907</v>
+        <v>46035</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1411280781544431</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09672854473492636</v>
+        <v>0.1011877379009548</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1893169253006989</v>
+        <v>0.1940694668169452</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>95</v>
@@ -6844,19 +6844,19 @@
         <v>99109</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>80820</v>
+        <v>82808</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>118288</v>
+        <v>119103</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1762568238976533</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.143731730361055</v>
+        <v>0.1472665330757674</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2103638443400766</v>
+        <v>0.2118147177654441</v>
       </c>
     </row>
     <row r="41">
@@ -6873,19 +6873,19 @@
         <v>50870</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>38429</v>
+        <v>38800</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64783</v>
+        <v>66151</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1564782584598623</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1182086749816025</v>
+        <v>0.1193490922648672</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.19927643887341</v>
+        <v>0.2034832388748298</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -6894,19 +6894,19 @@
         <v>15959</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9809</v>
+        <v>9802</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24849</v>
+        <v>24422</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0672770463365482</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.041352147048095</v>
+        <v>0.04132280136296904</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1047545824331139</v>
+        <v>0.1029583472544383</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>66</v>
@@ -6915,19 +6915,19 @@
         <v>66829</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>51765</v>
+        <v>52373</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>83165</v>
+        <v>83744</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1188486738662437</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09206024366039003</v>
+        <v>0.09314105975245805</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1479019303656342</v>
+        <v>0.1489305908322456</v>
       </c>
     </row>
     <row r="42">
@@ -6944,19 +6944,19 @@
         <v>41365</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>29683</v>
+        <v>30594</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>54352</v>
+        <v>54752</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1272401813989622</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09130743711649127</v>
+        <v>0.09410706081256752</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1671877620687873</v>
+        <v>0.1684203861072879</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -6965,19 +6965,19 @@
         <v>8494</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3992</v>
+        <v>3836</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>16131</v>
+        <v>16719</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03580699978664399</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01682905188642106</v>
+        <v>0.01617094213554228</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.0680052447955778</v>
+        <v>0.07048194808361841</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>48</v>
@@ -6986,19 +6986,19 @@
         <v>49859</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>36981</v>
+        <v>37319</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>65076</v>
+        <v>66308</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08866903914376438</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06576683839340103</v>
+        <v>0.06636820147595765</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1157309338704534</v>
+        <v>0.1179221082332581</v>
       </c>
     </row>
     <row r="43">
@@ -7090,19 +7090,19 @@
         <v>541809</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>505291</v>
+        <v>500629</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>579099</v>
+        <v>581497</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3853938829073705</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3594179366831535</v>
+        <v>0.3561017931656479</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4119187951365201</v>
+        <v>0.4136244830194895</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>699</v>
@@ -7111,19 +7111,19 @@
         <v>714980</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>684077</v>
+        <v>683055</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>746024</v>
+        <v>742041</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6940851604243026</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6640857539219146</v>
+        <v>0.6630933231053545</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7242222292138771</v>
+        <v>0.7203558588130975</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1209</v>
@@ -7132,19 +7132,19 @@
         <v>1256788</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1204256</v>
+        <v>1205362</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1305942</v>
+        <v>1313616</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5159312799252725</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4943657905413988</v>
+        <v>0.4948200960588408</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5361097519994469</v>
+        <v>0.5392597733211311</v>
       </c>
     </row>
     <row r="45">
@@ -7161,19 +7161,19 @@
         <v>359756</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>326627</v>
+        <v>322706</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>394229</v>
+        <v>391215</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2558977271405577</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2323329771601815</v>
+        <v>0.2295439228822237</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2804189878862712</v>
+        <v>0.278274594960395</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>185</v>
@@ -7182,19 +7182,19 @@
         <v>191882</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>165838</v>
+        <v>169402</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>220210</v>
+        <v>218195</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1862745541205312</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1609918633432872</v>
+        <v>0.1644512829926979</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2137746127480789</v>
+        <v>0.2118183880723612</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>515</v>
@@ -7203,19 +7203,19 @@
         <v>551638</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>508385</v>
+        <v>507044</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>592756</v>
+        <v>595179</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2264559241480427</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2087000408710491</v>
+        <v>0.2081496250294268</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2433357092475489</v>
+        <v>0.2443303575818695</v>
       </c>
     </row>
     <row r="46">
@@ -7232,19 +7232,19 @@
         <v>227973</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>200277</v>
+        <v>199910</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>256384</v>
+        <v>257536</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1621589877802695</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1424587212734419</v>
+        <v>0.1421976324792482</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1823686237700601</v>
+        <v>0.1831879767553332</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>64</v>
@@ -7253,19 +7253,19 @@
         <v>64201</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>51624</v>
+        <v>50288</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>80527</v>
+        <v>82276</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06232453421826665</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05011546121020825</v>
+        <v>0.04881847275095813</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07817388117077732</v>
+        <v>0.07987154430185665</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>274</v>
@@ -7274,19 +7274,19 @@
         <v>292173</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>258486</v>
+        <v>257244</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>323812</v>
+        <v>325812</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1199416313148811</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1061124142803984</v>
+        <v>0.105602826783203</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1329300568089012</v>
+        <v>0.1337508775492651</v>
       </c>
     </row>
     <row r="47">
@@ -7303,19 +7303,19 @@
         <v>276321</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>246522</v>
+        <v>247848</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>310440</v>
+        <v>307814</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1965494021718023</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.175353338346937</v>
+        <v>0.1762964188977535</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2208185372358573</v>
+        <v>0.2189511098471361</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>58</v>
@@ -7324,19 +7324,19 @@
         <v>59041</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>44819</v>
+        <v>46428</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>74632</v>
+        <v>76877</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05731575123689958</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04350918315057337</v>
+        <v>0.04507136576811675</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07245089481697276</v>
+        <v>0.0746305593501531</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>316</v>
@@ -7345,19 +7345,19 @@
         <v>335362</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>302622</v>
+        <v>300988</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>371406</v>
+        <v>372499</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1376711646118037</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1242311017679231</v>
+        <v>0.1235601918878849</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1524677851766084</v>
+        <v>0.1529166100995598</v>
       </c>
     </row>
     <row r="48">
@@ -7693,19 +7693,19 @@
         <v>36492</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27126</v>
+        <v>26854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48733</v>
+        <v>47524</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3593821299795381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2671464574879742</v>
+        <v>0.26446611926029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4799383726256792</v>
+        <v>0.4680316530130998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -7714,19 +7714,19 @@
         <v>57875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52680</v>
+        <v>51805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63194</v>
+        <v>62276</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8049466820571655</v>
+        <v>0.8049466820571656</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7326906057621289</v>
+        <v>0.7205307083731661</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8789304831056944</v>
+        <v>0.866159262028955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -7735,19 +7735,19 @@
         <v>94367</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80235</v>
+        <v>81197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106052</v>
+        <v>106629</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5440891387349812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4626077026494675</v>
+        <v>0.4681536272461459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6114600522007841</v>
+        <v>0.6147884724249406</v>
       </c>
     </row>
     <row r="5">
@@ -7764,19 +7764,19 @@
         <v>42190</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31737</v>
+        <v>32489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51892</v>
+        <v>52438</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4154956183161069</v>
+        <v>0.415495618316107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3125570528812726</v>
+        <v>0.3199613732445089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5110486919658358</v>
+        <v>0.5164248065696544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -7785,19 +7785,19 @@
         <v>12532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7566</v>
+        <v>8459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17755</v>
+        <v>18167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1743050322818773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1052357869771161</v>
+        <v>0.1176555796354884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2469371165813836</v>
+        <v>0.2526756881306079</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -7806,19 +7806,19 @@
         <v>54722</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43521</v>
+        <v>44193</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67040</v>
+        <v>67191</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3155110224172092</v>
+        <v>0.3155110224172093</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2509274660347548</v>
+        <v>0.2548044875845197</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3865322334951332</v>
+        <v>0.3874046673615692</v>
       </c>
     </row>
     <row r="6">
@@ -7835,19 +7835,19 @@
         <v>16983</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10621</v>
+        <v>9603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26298</v>
+        <v>26236</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.167251883225819</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1045971500468223</v>
+        <v>0.09457540596333887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.258985819938575</v>
+        <v>0.2583778675644383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -7856,19 +7856,19 @@
         <v>1492</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4051</v>
+        <v>3970</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02074828566095708</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006502545091773293</v>
+        <v>0.006605137236234758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05634519756589348</v>
+        <v>0.05520962507345465</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -7877,19 +7877,19 @@
         <v>18475</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11518</v>
+        <v>11253</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28662</v>
+        <v>27668</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1065194009133518</v>
+        <v>0.1065194009133519</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06640865117920385</v>
+        <v>0.06487998439516943</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1652570154069145</v>
+        <v>0.1595235813194831</v>
       </c>
     </row>
     <row r="7">
@@ -7906,19 +7906,19 @@
         <v>5876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17551</v>
+        <v>16186</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05787036847853603</v>
+        <v>0.05787036847853604</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01696656745030911</v>
+        <v>0.01694855684599941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1728469583542945</v>
+        <v>0.1594049867211992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -7940,19 +7940,19 @@
         <v>5876</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>878</v>
+        <v>1675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16239</v>
+        <v>17467</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03388043793445766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005065134711147932</v>
+        <v>0.0096582737885396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09363087943424328</v>
+        <v>0.1007072225406602</v>
       </c>
     </row>
     <row r="8">
@@ -8044,19 +8044,19 @@
         <v>36141</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25157</v>
+        <v>24443</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48391</v>
+        <v>48514</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2905630804173366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2022539788464246</v>
+        <v>0.1965149082534066</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.389042824160016</v>
+        <v>0.3900356839606888</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>72</v>
@@ -8065,19 +8065,19 @@
         <v>58962</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51916</v>
+        <v>51479</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>65859</v>
+        <v>65375</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.7277686372063424</v>
+        <v>0.7277686372063423</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6407954021153497</v>
+        <v>0.6354050933743994</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8128964392958929</v>
+        <v>0.8069236403950552</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>99</v>
@@ -8086,19 +8086,19 @@
         <v>95104</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>80742</v>
+        <v>80339</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>109862</v>
+        <v>110989</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4630129747681359</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3930927989754995</v>
+        <v>0.3911299105610437</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5348641836988787</v>
+        <v>0.5403517928509767</v>
       </c>
     </row>
     <row r="10">
@@ -8115,19 +8115,19 @@
         <v>41715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29823</v>
+        <v>30873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54727</v>
+        <v>55661</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3353725725078425</v>
+        <v>0.3353725725078424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2397622642296521</v>
+        <v>0.2482045615562846</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4399861038916668</v>
+        <v>0.4474967220882091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -8136,19 +8136,19 @@
         <v>12160</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7280</v>
+        <v>7483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18502</v>
+        <v>19378</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1500901840190693</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08986064491266367</v>
+        <v>0.09236682003520064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2283667301287013</v>
+        <v>0.2391873932423225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -8157,19 +8157,19 @@
         <v>53875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40913</v>
+        <v>41302</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68020</v>
+        <v>68600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.262290408240263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.19918565524017</v>
+        <v>0.2010801528487866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3311534869861233</v>
+        <v>0.3339769533807482</v>
       </c>
     </row>
     <row r="11">
@@ -8186,19 +8186,19 @@
         <v>28050</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17602</v>
+        <v>16928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41392</v>
+        <v>41103</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2255122688328852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1415169594823098</v>
+        <v>0.1360958359523598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3327757209975906</v>
+        <v>0.3304518162524925</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -8207,19 +8207,19 @@
         <v>2869</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>741</v>
+        <v>694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6810</v>
+        <v>6563</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03541201235538034</v>
+        <v>0.03541201235538033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009139964196451071</v>
+        <v>0.008563545650507345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08405288599515083</v>
+        <v>0.081005059561641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -8228,19 +8228,19 @@
         <v>30919</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19721</v>
+        <v>20872</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45140</v>
+        <v>48411</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1505297608648393</v>
+        <v>0.1505297608648394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09601175565614971</v>
+        <v>0.1016177240965705</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2197655309484703</v>
+        <v>0.2356892551311571</v>
       </c>
     </row>
     <row r="12">
@@ -8257,19 +8257,19 @@
         <v>18478</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9926</v>
+        <v>10168</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28537</v>
+        <v>29975</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1485520782419357</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07979992507943384</v>
+        <v>0.0817474684564098</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2294270693575311</v>
+        <v>0.2409899870782785</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -8278,19 +8278,19 @@
         <v>7027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12005</v>
+        <v>11785</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0867291664192079</v>
+        <v>0.08672916641920787</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04240442934496427</v>
+        <v>0.0424486121887841</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1481732189825305</v>
+        <v>0.1454623296379522</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -8299,19 +8299,19 @@
         <v>25504</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16390</v>
+        <v>16521</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36797</v>
+        <v>37396</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1241668561267618</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07979297855335189</v>
+        <v>0.08043262623812501</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1791449004888815</v>
+        <v>0.1820603064400363</v>
       </c>
     </row>
     <row r="13">
@@ -8403,19 +8403,19 @@
         <v>19086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12514</v>
+        <v>12583</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27002</v>
+        <v>27325</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.277626494826242</v>
+        <v>0.2776264948262421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1820363516907733</v>
+        <v>0.183027372445451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3927705607316584</v>
+        <v>0.3974706085555557</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -8424,19 +8424,19 @@
         <v>32695</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26074</v>
+        <v>26027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39660</v>
+        <v>39402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5338121380194191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4257150235146722</v>
+        <v>0.4249445268641137</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6475252594663441</v>
+        <v>0.6433161398973293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -8445,19 +8445,19 @@
         <v>51781</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41993</v>
+        <v>41885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62273</v>
+        <v>62325</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3983303799477865</v>
+        <v>0.3983303799477864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3230373408598525</v>
+        <v>0.3222046553664052</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4790439128339263</v>
+        <v>0.4794392274751357</v>
       </c>
     </row>
     <row r="15">
@@ -8474,19 +8474,19 @@
         <v>19082</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12275</v>
+        <v>12207</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27234</v>
+        <v>26278</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2775725849343468</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1785566537501402</v>
+        <v>0.177559692841927</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3961437718463219</v>
+        <v>0.3822437752251533</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -8495,19 +8495,19 @@
         <v>20482</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13868</v>
+        <v>14490</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27054</v>
+        <v>27717</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3344084786845641</v>
+        <v>0.3344084786845642</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2264267629270718</v>
+        <v>0.2365816322753854</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4417195915570411</v>
+        <v>0.4525432889634394</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>46</v>
@@ -8516,19 +8516,19 @@
         <v>39564</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30337</v>
+        <v>30144</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>49169</v>
+        <v>50051</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3043512642721016</v>
+        <v>0.3043512642721015</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2333727960757032</v>
+        <v>0.2318887866727114</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3782364225782763</v>
+        <v>0.3850248347356782</v>
       </c>
     </row>
     <row r="16">
@@ -8545,19 +8545,19 @@
         <v>10923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5362</v>
+        <v>5683</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18052</v>
+        <v>18015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1588932996586861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07800133238659678</v>
+        <v>0.08265954480314504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2625883968142607</v>
+        <v>0.2620411646789925</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -8566,19 +8566,19 @@
         <v>5072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2443</v>
+        <v>2342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9535</v>
+        <v>9133</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0828088541858103</v>
+        <v>0.08280885418581029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03989274239739669</v>
+        <v>0.0382379470554309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1556764742208973</v>
+        <v>0.1491171407405593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -8587,19 +8587,19 @@
         <v>15995</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10040</v>
+        <v>10175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24579</v>
+        <v>24685</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.123045513454018</v>
+        <v>0.1230455134540179</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0772322397085997</v>
+        <v>0.07827491210209846</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1890755383994597</v>
+        <v>0.1898891888444222</v>
       </c>
     </row>
     <row r="17">
@@ -8616,19 +8616,19 @@
         <v>19655</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12863</v>
+        <v>12431</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28800</v>
+        <v>28064</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.285907620580725</v>
+        <v>0.2859076205807251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1871029966360555</v>
+        <v>0.1808245610366512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4189293833284725</v>
+        <v>0.4082142458478485</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -8637,19 +8637,19 @@
         <v>2999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6659</v>
+        <v>6853</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04897052911020653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01863740230956296</v>
+        <v>0.0185640135075761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.108728752324373</v>
+        <v>0.1118821782003495</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -8658,19 +8658,19 @@
         <v>22655</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14575</v>
+        <v>14636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31589</v>
+        <v>32288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.174272842326094</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1121167416597606</v>
+        <v>0.1125888849360573</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2429982101440643</v>
+        <v>0.2483804274896607</v>
       </c>
     </row>
     <row r="18">
@@ -8762,19 +8762,19 @@
         <v>69583</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53786</v>
+        <v>52111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85062</v>
+        <v>85665</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5349589893890005</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4135101513659494</v>
+        <v>0.4006351692938032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6539650101737627</v>
+        <v>0.6586043303413809</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -8783,19 +8783,19 @@
         <v>67594</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58874</v>
+        <v>58272</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74603</v>
+        <v>74287</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7810237123476342</v>
+        <v>0.7810237123476341</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6802576894357718</v>
+        <v>0.673302080571738</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8620046765872682</v>
+        <v>0.8583507103789302</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -8804,19 +8804,19 @@
         <v>137177</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117024</v>
+        <v>119099</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153797</v>
+        <v>156502</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6332704661218399</v>
+        <v>0.63327046612184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.540235499596225</v>
+        <v>0.5498145299991613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7099946427327959</v>
+        <v>0.7224824066413361</v>
       </c>
     </row>
     <row r="20">
@@ -8833,19 +8833,19 @@
         <v>9717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3675</v>
+        <v>2967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24319</v>
+        <v>25022</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07470870411566914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02825272334585106</v>
+        <v>0.02281095166750978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1869654684105054</v>
+        <v>0.1923724441242112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -8854,19 +8854,19 @@
         <v>5783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2258</v>
+        <v>2023</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13503</v>
+        <v>12397</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06681524080493699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02608750482548469</v>
+        <v>0.02337726081601361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1560194832843943</v>
+        <v>0.1432381248337363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -8875,19 +8875,19 @@
         <v>15500</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7893</v>
+        <v>8319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29611</v>
+        <v>31124</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07155498900655526</v>
+        <v>0.07155498900655527</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03643749914718825</v>
+        <v>0.03840389953044927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1366988522091313</v>
+        <v>0.1436827729636086</v>
       </c>
     </row>
     <row r="21">
@@ -8904,19 +8904,19 @@
         <v>13365</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5792</v>
+        <v>6042</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27268</v>
+        <v>28166</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.102749806431477</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04453008240160328</v>
+        <v>0.04645092930143697</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2096411664009751</v>
+        <v>0.2165429716881885</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -8925,19 +8925,19 @@
         <v>2260</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6511</v>
+        <v>6449</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02611572775704028</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006875169531094887</v>
+        <v>0.00723443501612057</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0752346748023158</v>
+        <v>0.07451722778721712</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -8946,19 +8946,19 @@
         <v>15625</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7979</v>
+        <v>7716</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32439</v>
+        <v>29944</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07213180742716209</v>
+        <v>0.0721318074271621</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0368339265322016</v>
+        <v>0.0356220868520836</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.149755091293917</v>
+        <v>0.1382368092184645</v>
       </c>
     </row>
     <row r="22">
@@ -8975,19 +8975,19 @@
         <v>37406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23764</v>
+        <v>22770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54652</v>
+        <v>55077</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2875825000638533</v>
+        <v>0.2875825000638534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1827002881323259</v>
+        <v>0.1750563551309342</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4201687448663322</v>
+        <v>0.4234355388933623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -8996,19 +8996,19 @@
         <v>10909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5727</v>
+        <v>5672</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19057</v>
+        <v>19615</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1260453190903885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06616760190999622</v>
+        <v>0.06553933628666041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2202008032211088</v>
+        <v>0.2266409730295677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -9017,19 +9017,19 @@
         <v>48315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33987</v>
+        <v>33539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66754</v>
+        <v>66713</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2230427374444427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1569004735578957</v>
+        <v>0.1548321482983031</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3081648787449144</v>
+        <v>0.3079757843360219</v>
       </c>
     </row>
     <row r="23">
@@ -9121,19 +9121,19 @@
         <v>19721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14071</v>
+        <v>13327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26500</v>
+        <v>25141</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.43462584615483</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3101087961435142</v>
+        <v>0.293724404082396</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5840391889292714</v>
+        <v>0.5540734525117927</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>60</v>
@@ -9142,19 +9142,19 @@
         <v>29939</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24752</v>
+        <v>24237</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33870</v>
+        <v>34037</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6937465570292278</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5735667743536537</v>
+        <v>0.5616223711414566</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7848414920152317</v>
+        <v>0.7887050439296522</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>84</v>
@@ -9163,19 +9163,19 @@
         <v>49659</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>41836</v>
+        <v>41757</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57226</v>
+        <v>57278</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5609388179219965</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4725669923221245</v>
+        <v>0.4716797860176609</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6464045274568574</v>
+        <v>0.6469966519211862</v>
       </c>
     </row>
     <row r="25">
@@ -9192,19 +9192,19 @@
         <v>11992</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7395</v>
+        <v>7330</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17799</v>
+        <v>18040</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2642835327997015</v>
+        <v>0.2642835327997014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.162979107866974</v>
+        <v>0.1615420261748604</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3922832770190436</v>
+        <v>0.3975925853368795</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -9213,19 +9213,19 @@
         <v>6093</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3058</v>
+        <v>3377</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10093</v>
+        <v>10255</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1411902719654619</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07085747867901702</v>
+        <v>0.07825583235963005</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.233867244612514</v>
+        <v>0.2376272182208223</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -9234,19 +9234,19 @@
         <v>18085</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12484</v>
+        <v>11654</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24777</v>
+        <v>24391</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2042795465184952</v>
+        <v>0.2042795465184953</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1410110271147331</v>
+        <v>0.1316392550215487</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2798752257163263</v>
+        <v>0.2755185637983528</v>
       </c>
     </row>
     <row r="26">
@@ -9263,19 +9263,19 @@
         <v>4560</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1489</v>
+        <v>1750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9215</v>
+        <v>9926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1005086326438477</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03282661924102517</v>
+        <v>0.03857432567478072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2030949240402439</v>
+        <v>0.2187595268746284</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3807</v>
+        <v>4402</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01733074892080087</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08822721915759255</v>
+        <v>0.1020129427077724</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -9305,19 +9305,19 @@
         <v>5308</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1947</v>
+        <v>2212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10730</v>
+        <v>10835</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05996210263893963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02199134470014621</v>
+        <v>0.02498554044076576</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1212019866095735</v>
+        <v>0.122393515422688</v>
       </c>
     </row>
     <row r="27">
@@ -9334,19 +9334,19 @@
         <v>9101</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4921</v>
+        <v>5189</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14731</v>
+        <v>15265</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.200581988401621</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1084472719007272</v>
+        <v>0.1143619036810437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3246545526723989</v>
+        <v>0.3364370248224586</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -9355,19 +9355,19 @@
         <v>6375</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3283</v>
+        <v>3242</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11390</v>
+        <v>11115</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1477324220845094</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07608095837699004</v>
+        <v>0.07511825663211455</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2639417025725576</v>
+        <v>0.257550069554362</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -9376,19 +9376,19 @@
         <v>15477</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>9642</v>
+        <v>10347</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>22299</v>
+        <v>23034</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1748195329205686</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1089154076436688</v>
+        <v>0.1168793048257044</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2518847014768549</v>
+        <v>0.2601841494921482</v>
       </c>
     </row>
     <row r="28">
@@ -9480,19 +9480,19 @@
         <v>27066</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19548</v>
+        <v>19631</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34172</v>
+        <v>34897</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3882263880430933</v>
+        <v>0.3882263880430932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2803896142337369</v>
+        <v>0.2815820868913669</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4901498826795597</v>
+        <v>0.5005481825480841</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -9501,19 +9501,19 @@
         <v>33274</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27639</v>
+        <v>27686</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38196</v>
+        <v>37843</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7001503629902862</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5815703339920695</v>
+        <v>0.5825728862575223</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8037123482130982</v>
+        <v>0.7962954345231438</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>75</v>
@@ -9522,19 +9522,19 @@
         <v>60340</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50940</v>
+        <v>51007</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70224</v>
+        <v>69975</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5146660565473417</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4344881085085623</v>
+        <v>0.4350606143444666</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5989739393290686</v>
+        <v>0.5968513941483904</v>
       </c>
     </row>
     <row r="30">
@@ -9551,19 +9551,19 @@
         <v>14888</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9554</v>
+        <v>9423</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23116</v>
+        <v>22344</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.213554567938985</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1370369918118514</v>
+        <v>0.1351623570813197</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3315627674468261</v>
+        <v>0.3204900752983096</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -9572,19 +9572,19 @@
         <v>8395</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4937</v>
+        <v>4957</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12961</v>
+        <v>13100</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1766382852191466</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1038812076077903</v>
+        <v>0.104299268596573</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2727244409935314</v>
+        <v>0.2756535291235849</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -9593,19 +9593,19 @@
         <v>23283</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16228</v>
+        <v>16314</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31570</v>
+        <v>32133</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1985904006277172</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1384117978280313</v>
+        <v>0.1391508754989297</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2692769041927897</v>
+        <v>0.2740784625148063</v>
       </c>
     </row>
     <row r="31">
@@ -9622,19 +9622,19 @@
         <v>11675</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6713</v>
+        <v>6624</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18451</v>
+        <v>18781</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1674697129732408</v>
+        <v>0.1674697129732407</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.096291952414413</v>
+        <v>0.09501781241848958</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2646591945365045</v>
+        <v>0.2693879509177534</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -9643,19 +9643,19 @@
         <v>4389</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1732</v>
+        <v>1839</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9422</v>
+        <v>8800</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09234298921141514</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03645281231922638</v>
+        <v>0.03868836564815621</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1982583195168244</v>
+        <v>0.1851777140177956</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -9664,19 +9664,19 @@
         <v>16064</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10225</v>
+        <v>10367</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24745</v>
+        <v>23726</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1370167859423397</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08720998978551975</v>
+        <v>0.08842580644700798</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.21105961851144</v>
+        <v>0.2023718747327791</v>
       </c>
     </row>
     <row r="32">
@@ -9693,19 +9693,19 @@
         <v>16087</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9850</v>
+        <v>10057</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22478</v>
+        <v>22729</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2307493310446811</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1412899586045748</v>
+        <v>0.1442579706155177</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3224179501940386</v>
+        <v>0.3260164508069482</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5825</v>
+        <v>5666</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03086836257915231</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1225591590311868</v>
+        <v>0.1192310551449492</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -9735,19 +9735,19 @@
         <v>17554</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11030</v>
+        <v>11321</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>24387</v>
+        <v>25437</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1497267568826015</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09407749373722606</v>
+        <v>0.09655929256636897</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2080053281445087</v>
+        <v>0.21695967393129</v>
       </c>
     </row>
     <row r="33">
@@ -9839,19 +9839,19 @@
         <v>100686</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>85481</v>
+        <v>84570</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>116676</v>
+        <v>115545</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5476093044115014</v>
+        <v>0.5476093044115015</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4649158931530654</v>
+        <v>0.4599588275174769</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6345759230633348</v>
+        <v>0.6284289232334831</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>160</v>
@@ -9860,19 +9860,19 @@
         <v>129147</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>118146</v>
+        <v>119545</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>137291</v>
+        <v>138294</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.8013908707820717</v>
+        <v>0.8013908707820716</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7331303260252681</v>
+        <v>0.7418081673831166</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8519325856228579</v>
+        <v>0.8581540978698369</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>243</v>
@@ -9881,19 +9881,19 @@
         <v>229832</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>211826</v>
+        <v>209609</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>248360</v>
+        <v>248872</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6661476390545602</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6139581343828292</v>
+        <v>0.6075331789080808</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7198481064434377</v>
+        <v>0.7213322130556855</v>
       </c>
     </row>
     <row r="35">
@@ -9910,19 +9910,19 @@
         <v>30516</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18763</v>
+        <v>21071</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>42976</v>
+        <v>44226</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1659731023443077</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1020498030655976</v>
+        <v>0.1146019659304122</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2337376073909645</v>
+        <v>0.2405388914987812</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>19</v>
@@ -9931,19 +9931,19 @@
         <v>15926</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9764</v>
+        <v>9561</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24540</v>
+        <v>24661</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09882841009149565</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06059000043956942</v>
+        <v>0.05932792201154155</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.152275656911822</v>
+        <v>0.1530275458621617</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>43</v>
@@ -9952,19 +9952,19 @@
         <v>46443</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35301</v>
+        <v>34167</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>63865</v>
+        <v>62325</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1346106195856229</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1023176902241478</v>
+        <v>0.09902990419694704</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1851076209404839</v>
+        <v>0.1806424020615577</v>
       </c>
     </row>
     <row r="36">
@@ -9981,19 +9981,19 @@
         <v>17099</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9219</v>
+        <v>9413</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28525</v>
+        <v>29921</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09299822606332293</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05014274741768713</v>
+        <v>0.05119714054258993</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1551396214493675</v>
+        <v>0.1627361124871699</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -10002,19 +10002,19 @@
         <v>6374</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2887</v>
+        <v>2868</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11786</v>
+        <v>11467</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03955081949231303</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01791207281718203</v>
+        <v>0.01779516668496503</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07313751617606135</v>
+        <v>0.0711565529544466</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -10023,19 +10023,19 @@
         <v>23473</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14085</v>
+        <v>15004</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>36063</v>
+        <v>36716</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06803358163888576</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04082481441939999</v>
+        <v>0.04348739473670444</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1045258233888952</v>
+        <v>0.1064165388684159</v>
       </c>
     </row>
     <row r="37">
@@ -10052,19 +10052,19 @@
         <v>35563</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24097</v>
+        <v>24273</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>49291</v>
+        <v>49920</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1934193671808679</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1310568657328623</v>
+        <v>0.1320186959902399</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2680823553432777</v>
+        <v>0.2715061117017669</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -10073,19 +10073,19 @@
         <v>9706</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5660</v>
+        <v>5412</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16557</v>
+        <v>16543</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06022989963411964</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03512283169694196</v>
+        <v>0.03358357453633776</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1027430575468909</v>
+        <v>0.1026570409435238</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -10094,19 +10094,19 @@
         <v>45269</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>33716</v>
+        <v>33350</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>63436</v>
+        <v>61088</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1312081597209311</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09772237628603248</v>
+        <v>0.09666137338128346</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.183863284583743</v>
+        <v>0.1770592076943617</v>
       </c>
     </row>
     <row r="38">
@@ -10198,19 +10198,19 @@
         <v>82283</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>67947</v>
+        <v>66687</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>98898</v>
+        <v>98773</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3354111206262718</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2769734043787992</v>
+        <v>0.2718365092819713</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4031363787826673</v>
+        <v>0.4026255735641653</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>118</v>
@@ -10219,19 +10219,19 @@
         <v>97731</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>86285</v>
+        <v>86659</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>108680</v>
+        <v>109136</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.6155141547817856</v>
+        <v>0.6155141547817858</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5434257012845367</v>
+        <v>0.5457786453089501</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6844661396574142</v>
+        <v>0.687342806772774</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>189</v>
@@ -10240,19 +10240,19 @@
         <v>180015</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>160640</v>
+        <v>159673</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>200971</v>
+        <v>200697</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4454696585104481</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3975242976565245</v>
+        <v>0.3951314156431189</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4973288373528762</v>
+        <v>0.4966500149203293</v>
       </c>
     </row>
     <row r="40">
@@ -10269,19 +10269,19 @@
         <v>60044</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>44923</v>
+        <v>46049</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>74824</v>
+        <v>74407</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2447580996820923</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1831211462998152</v>
+        <v>0.1877100052391669</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3050038728972131</v>
+        <v>0.3033047205576735</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>40</v>
@@ -10290,19 +10290,19 @@
         <v>34483</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>25657</v>
+        <v>25204</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>45078</v>
+        <v>44016</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.2171754113797928</v>
+        <v>0.2171754113797927</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1615906076015303</v>
+        <v>0.1587339796141866</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2839004773373068</v>
+        <v>0.27721678057237</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>91</v>
@@ -10311,19 +10311,19 @@
         <v>94527</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>78833</v>
+        <v>76388</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>114823</v>
+        <v>111705</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2339202651166137</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1950821598411949</v>
+        <v>0.1890322111457494</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2841445167006726</v>
+        <v>0.276427793648225</v>
       </c>
     </row>
     <row r="41">
@@ -10340,19 +10340,19 @@
         <v>48109</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>35440</v>
+        <v>36319</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>62765</v>
+        <v>63241</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.196106857973415</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.144461922619699</v>
+        <v>0.1480487121958201</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2558499983703487</v>
+        <v>0.2577872902647083</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>16</v>
@@ -10361,19 +10361,19 @@
         <v>14937</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8556</v>
+        <v>8614</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>23658</v>
+        <v>22615</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09407571145482146</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05388432635571351</v>
+        <v>0.0542481449618887</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1489955140278472</v>
+        <v>0.1424273963106898</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>55</v>
@@ -10382,19 +10382,19 @@
         <v>63046</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>48401</v>
+        <v>49692</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>79355</v>
+        <v>81724</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1560166146158654</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1197755706085765</v>
+        <v>0.1229697704227274</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1963729959170518</v>
+        <v>0.2022355312886872</v>
       </c>
     </row>
     <row r="42">
@@ -10411,19 +10411,19 @@
         <v>54884</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>41661</v>
+        <v>41290</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>70152</v>
+        <v>70166</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2237239217182211</v>
+        <v>0.223723921718221</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1698232821842746</v>
+        <v>0.1683109532141342</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2859618527079051</v>
+        <v>0.2860187015197557</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>14</v>
@@ -10432,19 +10432,19 @@
         <v>11628</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>6793</v>
+        <v>6679</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>18844</v>
+        <v>18581</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07323472238359996</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04278383867658919</v>
+        <v>0.04206615970773676</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1186830724486987</v>
+        <v>0.1170238888995068</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>59</v>
@@ -10453,19 +10453,19 @@
         <v>66512</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>52451</v>
+        <v>51780</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>84197</v>
+        <v>81452</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1645934617570728</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1297971946298519</v>
+        <v>0.128135377976584</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2083567007631848</v>
+        <v>0.2015625004846123</v>
       </c>
     </row>
     <row r="43">
@@ -10557,19 +10557,19 @@
         <v>391057</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>355987</v>
+        <v>356824</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>423257</v>
+        <v>425271</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4035605099242809</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3673684725357843</v>
+        <v>0.3682326204500111</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4367899026389093</v>
+        <v>0.4388676600147892</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>673</v>
@@ -10578,19 +10578,19 @@
         <v>507217</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>484288</v>
+        <v>486718</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>525922</v>
+        <v>528472</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7130615660344913</v>
+        <v>0.7130615660344912</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.680826854620771</v>
+        <v>0.6842432433898815</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7393569545381776</v>
+        <v>0.7429429957204138</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1009</v>
@@ -10599,19 +10599,19 @@
         <v>898275</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>854865</v>
+        <v>855840</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>941395</v>
+        <v>940730</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5345787397255829</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5087449154458217</v>
+        <v>0.5093251119807317</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5602405524239179</v>
+        <v>0.5598445493720561</v>
       </c>
     </row>
     <row r="45">
@@ -10628,19 +10628,19 @@
         <v>230145</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>202585</v>
+        <v>201708</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>259077</v>
+        <v>260644</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2375034137852558</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2090623835457699</v>
+        <v>0.2081567199034659</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2673607343126264</v>
+        <v>0.2689775653955424</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>157</v>
@@ -10649,19 +10649,19 @@
         <v>115854</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>99376</v>
+        <v>97632</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>133456</v>
+        <v>134236</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1628711575446716</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1397059665403142</v>
+        <v>0.1372545236105027</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1876163306278538</v>
+        <v>0.1887128506718974</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>362</v>
@@ -10670,19 +10670,19 @@
         <v>345999</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>313943</v>
+        <v>313336</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>380424</v>
+        <v>379967</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.205910028542536</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1868326272338147</v>
+        <v>0.1864719233823363</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2263969098150264</v>
+        <v>0.2261249010999922</v>
       </c>
     </row>
     <row r="46">
@@ -10699,19 +10699,19 @@
         <v>150765</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>126139</v>
+        <v>127247</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>179942</v>
+        <v>179282</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1555855634305799</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1301716339192815</v>
+        <v>0.1313153121667335</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1856950698630286</v>
+        <v>0.1850143668596922</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>50</v>
@@ -10720,19 +10720,19 @@
         <v>38140</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>28070</v>
+        <v>28874</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>51608</v>
+        <v>51271</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.05361891388193688</v>
+        <v>0.05361891388193687</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03946157875928139</v>
+        <v>0.04059176293654137</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07255272340359323</v>
+        <v>0.07207810255694648</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>173</v>
@@ -10741,19 +10741,19 @@
         <v>188906</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>160629</v>
+        <v>163796</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>217463</v>
+        <v>221738</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1124209613754717</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09559286838471737</v>
+        <v>0.09747756185414158</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1294162520950494</v>
+        <v>0.1319602467832226</v>
       </c>
     </row>
     <row r="47">
@@ -10770,19 +10770,19 @@
         <v>197050</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>167117</v>
+        <v>167182</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>228537</v>
+        <v>224574</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2033505128598835</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.172459704039486</v>
+        <v>0.1725270984365757</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2358443548373759</v>
+        <v>0.2317546793277711</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>64</v>
@@ -10791,19 +10791,19 @@
         <v>50112</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>38833</v>
+        <v>39249</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>64431</v>
+        <v>65072</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.07044836253890027</v>
+        <v>0.07044836253890026</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05459253234349871</v>
+        <v>0.05517740533526379</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.09057875118637967</v>
+        <v>0.09148091454645078</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>220</v>
@@ -10812,19 +10812,19 @@
         <v>247162</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>215932</v>
+        <v>215033</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>280793</v>
+        <v>278256</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1470902703564094</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1285051316161486</v>
+        <v>0.1279698698188748</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.167104987216594</v>
+        <v>0.1655951154519309</v>
       </c>
     </row>
     <row r="48">
